--- a/13 文件输入输出/各种输入输出函数.xlsx
+++ b/13 文件输入输出/各种输入输出函数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WORK\ELEC\C&amp;C++\C学习\13 文件输入输出\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D95FAA0-A1ED-4F0E-8C4F-9FF54E90AFCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083983B8-2A00-4171-9616-ACBA55A53D23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>getc()</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,22 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>读取任意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取stdin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>写入任意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>写入stdout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,6 +243,46 @@
   </si>
   <si>
     <t>int scanf(char const* const 带格式的字符串指针, 格式化输入变量)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入任意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出任意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入stdin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出stdout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入的字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功输入的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出的字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遇到文件结尾或错误返回NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出的字符, 遇到错误返回EOF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,24 +771,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D201D7-538B-4E35-9CDD-A566B3912DB4}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.58203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.9140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.58203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.58203125" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.75" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="15"/>
+    <col min="11" max="11" width="11.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.58203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -775,13 +799,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>15</v>
@@ -791,20 +815,22 @@
       </c>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="12"/>
+        <v>41</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="14"/>
@@ -814,15 +840,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3" s="17">
         <v>0</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="17"/>
+        <v>43</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="18"/>
@@ -833,15 +861,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="22">
         <v>2</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="22"/>
+        <v>44</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
       <c r="H4" s="14"/>
@@ -851,15 +881,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C5" s="24">
         <v>1</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="24"/>
+        <v>45</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>62</v>
+      </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="18"/>
@@ -869,15 +901,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C6" s="13">
         <v>3</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
@@ -899,13 +933,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" s="17">
         <v>2</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -917,13 +951,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="22">
         <v>2</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -935,13 +969,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="24">
         <v>1</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -953,15 +987,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="13">
         <v>3</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
@@ -971,15 +1007,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" s="17">
         <v>2</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="17"/>
+        <v>53</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
@@ -989,15 +1027,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13" s="22">
         <v>3</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="22"/>
+        <v>49</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="14"/>
@@ -1007,36 +1047,39 @@
         <v>12</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C14" s="24">
         <v>2</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="24"/>
+        <v>50</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H15" s="25" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1060,27 +1103,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -1088,37 +1131,37 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
